--- a/transify.xlsx
+++ b/transify.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil.zhu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil.zhu\python_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5573C0E5-56D8-410B-949C-5F80D3AD6D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D51C5-41D6-45E2-9283-AA5542126F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="8388" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,30 +35,152 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自2022年9月26日起，您将无法再从【商店介绍】中编辑您的商店封面照片、图片及影片。请通过【商店装饰】进行编辑。</t>
-  </si>
-  <si>
-    <t>您无法再从【商店介绍】中编辑您的商店封面照片、图片及影片。现在起，这些操作仅可在【商店装饰】中完成。</t>
-  </si>
-  <si>
-    <t>sd_tips_profile_migration</t>
-  </si>
-  <si>
-    <t>sd_tips_profile_migration_phase2</t>
-  </si>
-  <si>
-    <t>sd_tips_profile_migration_app</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd_tips_profile_migration_phase2_app
-</t>
+    <t>输入网址</t>
+  </si>
+  <si>
+    <t>主打商品</t>
+  </si>
+  <si>
+    <t>热门优惠</t>
+  </si>
+  <si>
+    <t>分类商品</t>
+  </si>
+  <si>
+    <t>套装优惠</t>
+  </si>
+  <si>
+    <t>热销商品</t>
+  </si>
+  <si>
+    <t>图片包含违反Shopee政策的内容，请使用其他图片。</t>
+  </si>
+  <si>
+    <t>内容包含不允许使用的敏感性字眼，请将其删除。</t>
+  </si>
+  <si>
+    <t>图片上传失败，请再试一次。</t>
+  </si>
+  <si>
+    <t>商店装饰</t>
+  </si>
+  <si>
+    <t>上传中</t>
+  </si>
+  <si>
+    <t>请更改无效内容</t>
+  </si>
+  <si>
+    <t>请输入有效的 YouTube 链接</t>
+  </si>
+  <si>
+    <t>请检查您的网络。</t>
+  </si>
+  <si>
+    <t>服务器错误</t>
+  </si>
+  <si>
+    <t>请联系Shopee客服寻求协助。</t>
+  </si>
+  <si>
+    <t>内容错误</t>
+  </si>
+  <si>
+    <t>查无内容</t>
+  </si>
+  <si>
+    <t>查无结果，请重新检查。</t>
+  </si>
+  <si>
+    <t>请求超时</t>
+  </si>
+  <si>
+    <t>请再试一次。</t>
+  </si>
+  <si>
+    <t>查无商品</t>
+  </si>
+  <si>
+    <t>请试试其他关键字</t>
+  </si>
+  <si>
+    <t>sd_app_tip_enter_youtube_video_url</t>
+  </si>
+  <si>
+    <t>sd_app_title_product_highlights</t>
+  </si>
+  <si>
+    <t>sd_app_title_hot_deals</t>
+  </si>
+  <si>
+    <t>sd_app_title_product_by_category</t>
+  </si>
+  <si>
+    <t>sd_app_title_bundle_deals</t>
+  </si>
+  <si>
+    <t>sd_app_title_top_products</t>
+  </si>
+  <si>
+    <t>sd_app_error_image_qc_ban</t>
+  </si>
+  <si>
+    <t>sd_app_error_text_qc_ban</t>
+  </si>
+  <si>
+    <t>sd_app_error_image_upload_failed</t>
+  </si>
+  <si>
+    <t>sd_app_title_shop_decoration</t>
+  </si>
+  <si>
+    <t>sd_app_tip_wait_a_moment</t>
+  </si>
+  <si>
+    <t>sd_app_error_component_invalid_default</t>
+  </si>
+  <si>
+    <t>sd_app_error_youtube_url_invalid</t>
+  </si>
+  <si>
+    <t>sd_app_error_content_newtork</t>
+  </si>
+  <si>
+    <t>sd_app_error_title_server</t>
+  </si>
+  <si>
+    <t>sd_app_error_content_server</t>
+  </si>
+  <si>
+    <t>sd_app_error_title_content</t>
+  </si>
+  <si>
+    <t>sd_app_error_content_content</t>
+  </si>
+  <si>
+    <t>sd_app_error_title_not_found</t>
+  </si>
+  <si>
+    <t>sd_app_error_content_not_found</t>
+  </si>
+  <si>
+    <t>sd_app_error_title_timeout</t>
+  </si>
+  <si>
+    <t>sd_app_error_content_timeout</t>
+  </si>
+  <si>
+    <t>sd_app_title_no_result</t>
+  </si>
+  <si>
+    <t>sd_app_tip_no_search_result</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,22 +201,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,41 +239,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,15 +531,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -452,36 +551,196 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="185.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
+    <row r="2" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="172.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="185.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="172.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+    </row>
+    <row r="8" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/transify.xlsx
+++ b/transify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neil.zhu\python_projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5D51C5-41D6-45E2-9283-AA5542126F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84295C41-D747-4199-8B10-E306BBF73235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="11556" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="175">
   <si>
     <t>Key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,152 +35,566 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输入网址</t>
-  </si>
-  <si>
-    <t>主打商品</t>
-  </si>
-  <si>
-    <t>热门优惠</t>
-  </si>
-  <si>
-    <t>分类商品</t>
-  </si>
-  <si>
-    <t>套装优惠</t>
-  </si>
-  <si>
-    <t>热销商品</t>
-  </si>
-  <si>
-    <t>图片包含违反Shopee政策的内容，请使用其他图片。</t>
-  </si>
-  <si>
-    <t>内容包含不允许使用的敏感性字眼，请将其删除。</t>
-  </si>
-  <si>
-    <t>图片上传失败，请再试一次。</t>
-  </si>
-  <si>
-    <t>商店装饰</t>
-  </si>
-  <si>
-    <t>上传中</t>
-  </si>
-  <si>
-    <t>请更改无效内容</t>
-  </si>
-  <si>
-    <t>请输入有效的 YouTube 链接</t>
-  </si>
-  <si>
-    <t>请检查您的网络。</t>
-  </si>
-  <si>
-    <t>服务器错误</t>
-  </si>
-  <si>
-    <t>请联系Shopee客服寻求协助。</t>
-  </si>
-  <si>
-    <t>内容错误</t>
-  </si>
-  <si>
-    <t>查无内容</t>
-  </si>
-  <si>
-    <t>查无结果，请重新检查。</t>
-  </si>
-  <si>
-    <t>请求超时</t>
-  </si>
-  <si>
-    <t>请再试一次。</t>
-  </si>
-  <si>
-    <t>查无商品</t>
-  </si>
-  <si>
-    <t>请试试其他关键字</t>
-  </si>
-  <si>
-    <t>sd_app_tip_enter_youtube_video_url</t>
-  </si>
-  <si>
-    <t>sd_app_title_product_highlights</t>
-  </si>
-  <si>
-    <t>sd_app_title_hot_deals</t>
-  </si>
-  <si>
-    <t>sd_app_title_product_by_category</t>
-  </si>
-  <si>
-    <t>sd_app_title_bundle_deals</t>
-  </si>
-  <si>
-    <t>sd_app_title_top_products</t>
-  </si>
-  <si>
-    <t>sd_app_error_image_qc_ban</t>
-  </si>
-  <si>
-    <t>sd_app_error_text_qc_ban</t>
-  </si>
-  <si>
-    <t>sd_app_error_image_upload_failed</t>
-  </si>
-  <si>
-    <t>sd_app_title_shop_decoration</t>
-  </si>
-  <si>
-    <t>sd_app_tip_wait_a_moment</t>
-  </si>
-  <si>
-    <t>sd_app_error_component_invalid_default</t>
-  </si>
-  <si>
-    <t>sd_app_error_youtube_url_invalid</t>
-  </si>
-  <si>
-    <t>sd_app_error_content_newtork</t>
-  </si>
-  <si>
-    <t>sd_app_error_title_server</t>
-  </si>
-  <si>
-    <t>sd_app_error_content_server</t>
-  </si>
-  <si>
-    <t>sd_app_error_title_content</t>
-  </si>
-  <si>
-    <t>sd_app_error_content_content</t>
-  </si>
-  <si>
-    <t>sd_app_error_title_not_found</t>
-  </si>
-  <si>
-    <t>sd_app_error_content_not_found</t>
-  </si>
-  <si>
-    <t>sd_app_error_title_timeout</t>
-  </si>
-  <si>
-    <t>sd_app_error_content_timeout</t>
-  </si>
-  <si>
-    <t>sd_app_title_no_result</t>
-  </si>
-  <si>
-    <t>sd_app_tip_no_search_result</t>
+    <t>be_mission_condition_display_name_32</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_33</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_34</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_72</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_35</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_73</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_47</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_48</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_49</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_50</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_51</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_53</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_86</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_1</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_2</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_3</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_8</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_36</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_37</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_38</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_39</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_40</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_41</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_42</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_43</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_74</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_44</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_87</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_4</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_5</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_45</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_46</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_54</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_55</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_77</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_56</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_84</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_6</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_57</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_58</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_69</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_59</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_60</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_61</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_62</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_63</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_64</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_65</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_75</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_76</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_66</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_67</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_68</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_name_85</t>
+  </si>
+  <si>
+    <t>be_mission_condition_feature_7</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_32</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_33</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_34</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_72</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_35</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_73</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_47</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_48</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_49</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_50</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_51</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_53</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_86</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_36</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_37</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_38</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_39</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_40</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_41</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_42</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_43</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_74</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_44</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_87</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_45</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_46</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_54</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_55</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_77</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_56</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_84</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_57</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_58</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_69</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_59</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_60</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_61</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_62</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_63</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_64</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_65</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_75</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_76</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_66</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_67</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_68</t>
+  </si>
+  <si>
+    <t>be_mission_condition_display_detail_85</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {createTimeRange}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{currency} {voucherCap}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {campaignName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{stock}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {currency} {promotionPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{campaignName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{totalUseCount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {currency} {voucherCap}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个加购优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个套装优惠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个店铺闪购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个加购赠礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个优惠券活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个关注礼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已提报活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于每个平台优惠券活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">至少 {mainItemCount} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">至少 {mainItemCount} </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少 {subItemCount}</t>
+  </si>
+  <si>
+    <t>至少 {bundleDealDiscountPercentage}%</t>
+  </si>
+  <si>
+    <t>至少 {totalUseCount}</t>
+  </si>
+  <si>
+    <t>至少 {currency} {voucherValue}</t>
+  </si>
+  <si>
+    <t>至少 {voucherPercentage}%</t>
+  </si>
+  <si>
+    <t>至少 {discount}%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 至少 {currency} {voucherValue}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 至少 {currency} {voucherCap}</t>
+  </si>
+  <si>
+    <t>至少 {currency} {voucherCap}</t>
+  </si>
+  <si>
+    <t>至少 {currency} {minSpend}</t>
+  </si>
+  <si>
+    <t>固定折扣金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多 {bundleDealMinAmount} 个商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多 {currency} {bundleDealFixPrice}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾币返现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {currency} {voucherCap} 虾币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多 {currency} {minSpend}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于 {currency} {voucherValue}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于 {voucherPercentage}%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 等于 {currency} {voucherCap}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等于 {currency} {minSpend}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主商品：</t>
+  </si>
+  <si>
+    <t>套装优惠的商品：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加购商品： </t>
+  </si>
+  <si>
+    <t xml:space="preserve">赠品商品： </t>
+  </si>
+  <si>
+    <t xml:space="preserve">套装优惠类型： </t>
+  </si>
+  <si>
+    <t xml:space="preserve">套装优惠数量： </t>
+  </si>
+  <si>
+    <t>折扣比例：</t>
+  </si>
+  <si>
+    <t>套装价格：</t>
+  </si>
+  <si>
+    <t>创建时间：</t>
+  </si>
+  <si>
+    <t>奖励类型：</t>
+  </si>
+  <si>
+    <t>优惠券类型：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用数量： </t>
+  </si>
+  <si>
+    <t>折扣金额：</t>
+  </si>
+  <si>
+    <t>最大折扣金额：</t>
+  </si>
+  <si>
+    <t>最大折扣限额：</t>
+  </si>
+  <si>
+    <t>最低消费：</t>
+  </si>
+  <si>
+    <t>提名：</t>
+  </si>
+  <si>
+    <t>每个商品的最少库存：</t>
+  </si>
+  <si>
+    <t>活动价格：</t>
+  </si>
+  <si>
+    <t>每个商品的折扣比例：</t>
+  </si>
+  <si>
+    <t>提报状态：</t>
+  </si>
+  <si>
+    <t>对于每个平台商品活动：</t>
+  </si>
+  <si>
+    <t>可提报活动：</t>
+  </si>
+  <si>
+    <t>使用数量：</t>
+  </si>
+  <si>
+    <t>店铺闪购的商品：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,16 +610,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="等线"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +624,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -224,33 +632,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -531,19 +919,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,196 +939,820 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="B39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="B43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
+      <c r="B48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
